--- a/BusPlanning.xlsx
+++ b/BusPlanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fb42b29621d9c9/Documents/Project 5 kans 2/GithubCode/Project_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8FDCAC-0757-4CF5-80CC-EE5DEDF3A1B4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D81ED8-5B34-4294-BAC2-FE48F154075E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2067,6 +2067,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2357,8 +2361,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E401" sqref="E401"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,25 +2430,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2455,19 +2456,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>401</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2498,25 +2502,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>10.86</v>
+        <v>1.98</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2524,16 +2525,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2645,22 +2646,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>401</v>
       </c>
       <c r="G12">
-        <v>1.98</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2668,25 +2672,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2746,19 +2747,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>401</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2789,25 +2793,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2818,19 +2819,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>401</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2933,25 +2937,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2962,19 +2963,22 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>401</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3198,25 +3202,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3227,19 +3228,22 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>400</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3541,25 +3545,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="G49">
-        <v>12.849600000000001</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3570,19 +3571,22 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>401</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3976,25 +3980,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G67">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4394,22 +4395,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>401</v>
       </c>
       <c r="G84">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -5028,25 +5032,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G110">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5394,22 +5395,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F125">
+        <v>401</v>
       </c>
       <c r="G125">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5982,25 +5986,22 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G149">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -6348,22 +6349,25 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F164">
+        <v>401</v>
       </c>
       <c r="G164">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -6936,25 +6940,22 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G188">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -7380,22 +7381,25 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D206" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F206">
+        <v>401</v>
       </c>
       <c r="G206">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -7991,25 +7995,22 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
-      </c>
-      <c r="F231">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G231">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -8334,22 +8335,25 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D245" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F245">
+        <v>401</v>
       </c>
       <c r="G245">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -8899,25 +8903,22 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E268" t="s">
-        <v>15</v>
-      </c>
-      <c r="F268">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G268">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -9288,22 +9289,25 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D284" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E284" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F284">
+        <v>401</v>
       </c>
       <c r="G284">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -9876,25 +9880,22 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D308" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E308" t="s">
-        <v>15</v>
-      </c>
-      <c r="F308">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G308">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -10297,22 +10298,25 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D325" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E325" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F325">
+        <v>401</v>
       </c>
       <c r="G325">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -10885,25 +10889,22 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D349" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E349" t="s">
-        <v>15</v>
-      </c>
-      <c r="F349">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G349">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -11274,22 +11275,25 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C365" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D365" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E365" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F365">
+        <v>401</v>
       </c>
       <c r="G365">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -12000,25 +12004,22 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B395" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C395" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D395" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E395" t="s">
-        <v>15</v>
-      </c>
-      <c r="F395">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G395">
-        <v>10.86</v>
+        <v>-157.5</v>
       </c>
       <c r="H395">
         <v>1</v>
@@ -12147,22 +12148,22 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B401" t="s">
         <v>8</v>
       </c>
       <c r="C401" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D401" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E401" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G401">
-        <v>-157.5</v>
+        <v>1.98</v>
       </c>
       <c r="H401">
         <v>1</v>
@@ -12565,19 +12566,19 @@
         <v>8</v>
       </c>
       <c r="B418" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C418" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D418" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E418" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G418">
-        <v>1.98</v>
+        <v>10.8</v>
       </c>
       <c r="H418">
         <v>1</v>
@@ -13115,22 +13116,25 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B441" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D441" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E441" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F441">
+        <v>401</v>
       </c>
       <c r="G441">
-        <v>10.8</v>
+        <v>10.86</v>
       </c>
       <c r="H441">
         <v>1</v>
@@ -13720,25 +13724,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B466" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C466" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D466" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E466" t="s">
-        <v>15</v>
-      </c>
-      <c r="F466">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G466">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H466">
         <v>1</v>
@@ -14178,22 +14179,25 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B485" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C485" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D485" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E485" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F485">
+        <v>401</v>
       </c>
       <c r="G485">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H485">
         <v>1</v>
@@ -14835,25 +14839,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B512" t="s">
         <v>9</v>
       </c>
       <c r="C512" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D512" t="s">
         <v>57</v>
       </c>
       <c r="E512" t="s">
-        <v>15</v>
-      </c>
-      <c r="F512">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G512">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H512">
         <v>1</v>
@@ -14864,19 +14865,22 @@
         <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C513" t="s">
         <v>57</v>
       </c>
       <c r="D513" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E513" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F513">
+        <v>400</v>
       </c>
       <c r="G513">
-        <v>5</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H513">
         <v>1</v>
@@ -15348,25 +15352,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B533" t="s">
         <v>13</v>
       </c>
       <c r="C533" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D533" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E533" t="s">
-        <v>15</v>
-      </c>
-      <c r="F533">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="G533">
-        <v>12.849600000000001</v>
+        <v>5</v>
       </c>
       <c r="H533">
         <v>1</v>
@@ -15400,19 +15401,22 @@
         <v>13</v>
       </c>
       <c r="B535" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C535" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D535" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E535" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F535">
+        <v>401</v>
       </c>
       <c r="G535">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H535">
         <v>1</v>
@@ -15927,25 +15931,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B557" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C557" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D557" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E557" t="s">
-        <v>15</v>
-      </c>
-      <c r="F557">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G557">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H557">
         <v>1</v>
@@ -16440,22 +16441,25 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B578" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C578" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D578" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E578" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F578">
+        <v>401</v>
       </c>
       <c r="G578">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H578">
         <v>1</v>
@@ -17094,25 +17098,22 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B605" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C605" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D605" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E605" t="s">
-        <v>15</v>
-      </c>
-      <c r="F605">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G605">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H605">
         <v>1</v>
@@ -17414,22 +17415,25 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B618" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D618" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E618" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F618">
+        <v>401</v>
       </c>
       <c r="G618">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H618">
         <v>1</v>
@@ -17950,25 +17954,22 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B640" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C640" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D640" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E640" t="s">
-        <v>15</v>
-      </c>
-      <c r="F640">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G640">
-        <v>10.86</v>
+        <v>10.32</v>
       </c>
       <c r="H640">
         <v>1</v>
@@ -18270,22 +18271,25 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B653" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C653" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D653" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E653" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F653">
+        <v>401</v>
       </c>
       <c r="G653">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="H653">
         <v>1</v>
@@ -18636,25 +18640,22 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B668" t="s">
         <v>9</v>
       </c>
       <c r="C668" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D668" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E668" t="s">
-        <v>15</v>
-      </c>
-      <c r="F668">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G668">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H668">
         <v>1</v>
@@ -18688,19 +18689,22 @@
         <v>9</v>
       </c>
       <c r="B670" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C670" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D670" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E670" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F670">
+        <v>401</v>
       </c>
       <c r="G670">
-        <v>5</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H670">
         <v>1</v>
@@ -18996,25 +19000,22 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B683" t="s">
         <v>13</v>
       </c>
       <c r="C683" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D683" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E683" t="s">
-        <v>15</v>
-      </c>
-      <c r="F683">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G683">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -19048,19 +19049,22 @@
         <v>13</v>
       </c>
       <c r="B685" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C685" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D685" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E685" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F685">
+        <v>401</v>
       </c>
       <c r="G685">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H685">
         <v>1</v>
@@ -19166,25 +19170,22 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B690" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C690" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D690" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E690" t="s">
-        <v>15</v>
-      </c>
-      <c r="F690">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G690">
-        <v>10.86</v>
+        <v>1.98</v>
       </c>
       <c r="H690">
         <v>1</v>
@@ -19218,22 +19219,22 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B692" t="s">
         <v>8</v>
       </c>
       <c r="C692" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D692" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E692" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G692">
-        <v>1.98</v>
+        <v>-210</v>
       </c>
       <c r="H692">
         <v>1</v>
@@ -19368,19 +19369,19 @@
         <v>8</v>
       </c>
       <c r="B698" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C698" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D698" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E698" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G698">
-        <v>-210</v>
+        <v>1.98</v>
       </c>
       <c r="H698">
         <v>1</v>
@@ -19411,22 +19412,25 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B700" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C700" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D700" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E700" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F700">
+        <v>401</v>
       </c>
       <c r="G700">
-        <v>1.98</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H700">
         <v>1</v>
@@ -19483,25 +19487,22 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B703" t="s">
         <v>13</v>
       </c>
       <c r="C703" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D703" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E703" t="s">
-        <v>15</v>
-      </c>
-      <c r="F703">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G703">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H703">
         <v>1</v>
@@ -19558,19 +19559,22 @@
         <v>13</v>
       </c>
       <c r="B706" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C706" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D706" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E706" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F706">
+        <v>401</v>
       </c>
       <c r="G706">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H706">
         <v>1</v>
@@ -19601,25 +19605,22 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B708" t="s">
         <v>9</v>
       </c>
       <c r="C708" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D708" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E708" t="s">
-        <v>15</v>
-      </c>
-      <c r="F708">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G708">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H708">
         <v>1</v>
@@ -19702,19 +19703,22 @@
         <v>9</v>
       </c>
       <c r="B712" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C712" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D712" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E712" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F712">
+        <v>401</v>
       </c>
       <c r="G712">
-        <v>5</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H712">
         <v>1</v>
@@ -19771,25 +19775,22 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B715" t="s">
         <v>13</v>
       </c>
       <c r="C715" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D715" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E715" t="s">
-        <v>15</v>
-      </c>
-      <c r="F715">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G715">
-        <v>10.803599999999999</v>
+        <v>5</v>
       </c>
       <c r="H715">
         <v>1</v>
@@ -19800,19 +19801,22 @@
         <v>13</v>
       </c>
       <c r="B716" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C716" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D716" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E716" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F716">
+        <v>401</v>
       </c>
       <c r="G716">
-        <v>5</v>
+        <v>10.86</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -19843,25 +19847,22 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B718" t="s">
         <v>9</v>
       </c>
       <c r="C718" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D718" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E718" t="s">
-        <v>15</v>
-      </c>
-      <c r="F718">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G718">
-        <v>10.86</v>
+        <v>5</v>
       </c>
       <c r="H718">
         <v>1</v>
@@ -19921,19 +19922,22 @@
         <v>9</v>
       </c>
       <c r="B721" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C721" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D721" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E721" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F721">
+        <v>401</v>
       </c>
       <c r="G721">
-        <v>5</v>
+        <v>10.803599999999999</v>
       </c>
       <c r="H721">
         <v>1</v>
@@ -19946,6 +19950,9 @@
         <filter val="1"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H721">
+      <sortCondition ref="C1:C721"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19961,14 +19968,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="85" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f20b580f4bc73672f7fc26b54f2fdd7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9324efb3ca4fd789e46a4cfe415928a3" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -20189,6 +20188,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
   <ds:schemaRefs>
@@ -20198,16 +20205,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20224,4 +20221,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BusPlanning.xlsx
+++ b/BusPlanning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fb42b29621d9c9/Documents/Project 5 kans 2/GithubCode/Project_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/527924_student_fontys_nl/Documents/Documenten/Project_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D81ED8-5B34-4294-BAC2-FE48F154075E}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E11527B-44CF-4F8E-88A8-6477409A1265}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2054,7 +2054,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2067,10 +2067,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2361,8 +2357,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E728" sqref="E728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2958,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3978,7 +3974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -4393,7 +4389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5393,7 +5389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -5984,7 +5980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6938,7 +6934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -7379,7 +7375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7993,7 +7989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -8333,7 +8329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8901,7 +8897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -10296,7 +10292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -11273,7 +11269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -12002,7 +11998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -12146,7 +12142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -12561,7 +12557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -13114,7 +13110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -13722,7 +13718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -14177,7 +14173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14814,7 +14810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -15350,7 +15346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15929,7 +15925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -16439,7 +16435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17413,7 +17409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17952,7 +17948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -18269,7 +18265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>13</v>
       </c>
@@ -18638,7 +18634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -18684,7 +18680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>9</v>
       </c>
@@ -18998,7 +18994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19044,7 +19040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19168,7 +19164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19217,7 +19213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>8</v>
       </c>
@@ -19364,7 +19360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -19410,7 +19406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19485,7 +19481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>13</v>
       </c>
@@ -19554,7 +19550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19603,7 +19599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -19698,7 +19694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -19773,7 +19769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>13</v>
       </c>
@@ -19796,7 +19792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>13</v>
       </c>
@@ -19845,7 +19841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -19917,7 +19913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>9</v>
       </c>
@@ -19945,6 +19941,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H721" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="400"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="1"/>
@@ -19968,6 +19969,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="85" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f20b580f4bc73672f7fc26b54f2fdd7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9324efb3ca4fd789e46a4cfe415928a3" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -20188,14 +20197,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
   <ds:schemaRefs>
@@ -20205,6 +20206,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20221,14 +20232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BusPlanning.xlsx
+++ b/BusPlanning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/527924_student_fontys_nl/Documents/Documenten/Project_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E11527B-44CF-4F8E-88A8-6477409A1265}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D60E2F-59E4-4F56-82B8-159BDE050358}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$721</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2355,10 +2368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H721"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E728" sqref="E728"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,8 +2380,8 @@
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2424,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2809,8 +2822,12 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f>270-G7-G12</f>
+        <v>257.21639999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3101,7 +3118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3132,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -3147,7 +3164,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3196,7 +3213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3227,10 +3244,10 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -3325,10 +3342,10 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -3340,7 +3357,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3489,16 +3506,16 @@
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -3507,10 +3524,10 @@
         <v>400</v>
       </c>
       <c r="G47">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3539,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3757,16 +3774,16 @@
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -3775,10 +3792,10 @@
         <v>400</v>
       </c>
       <c r="G58">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3812,10 +3829,10 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>552</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -3827,7 +3844,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3974,7 +3991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3999,16 +4016,16 @@
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -4017,10 +4034,10 @@
         <v>400</v>
       </c>
       <c r="G68">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4051,16 +4068,16 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -4069,10 +4086,10 @@
         <v>400</v>
       </c>
       <c r="G70">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4129,10 +4146,10 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4144,7 +4161,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4339,16 +4356,16 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -4357,10 +4374,10 @@
         <v>400</v>
       </c>
       <c r="G82">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4371,10 +4388,10 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
-        <v>597</v>
+        <v>233</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -4386,10 +4403,10 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H83">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4593,10 +4610,10 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -4608,7 +4625,7 @@
         <v>12.3</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4662,16 +4679,16 @@
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -4680,10 +4697,10 @@
         <v>400</v>
       </c>
       <c r="G95">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4740,10 +4757,10 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>619</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -4755,7 +4772,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H98">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4855,16 +4872,16 @@
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="D103" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -4873,10 +4890,10 @@
         <v>400</v>
       </c>
       <c r="G103">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4959,10 +4976,10 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -4974,7 +4991,7 @@
         <v>12.3</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5002,16 +5019,16 @@
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>639</v>
+        <v>274</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -5020,13 +5037,13 @@
         <v>400</v>
       </c>
       <c r="G109">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H109">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5195,16 +5212,16 @@
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -5213,7 +5230,7 @@
         <v>400</v>
       </c>
       <c r="G117">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H117">
         <v>6</v>
@@ -5270,16 +5287,16 @@
     </row>
     <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="D120" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
@@ -5288,10 +5305,10 @@
         <v>400</v>
       </c>
       <c r="G120">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5342,16 +5359,16 @@
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>574</v>
+        <v>282</v>
       </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -5360,10 +5377,10 @@
         <v>400</v>
       </c>
       <c r="G123">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5389,7 +5406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -5472,10 +5489,10 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
@@ -5487,7 +5504,7 @@
         <v>12.3</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5570,10 +5587,10 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
@@ -5585,7 +5602,7 @@
         <v>12.3</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5613,16 +5630,16 @@
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="D134" t="s">
-        <v>599</v>
+        <v>292</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
@@ -5631,10 +5648,10 @@
         <v>400</v>
       </c>
       <c r="G134">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5815,10 +5832,10 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="D142" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="E142" t="s">
         <v>15</v>
@@ -5830,7 +5847,7 @@
         <v>12.3</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5861,16 +5878,16 @@
     </row>
     <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
@@ -5879,10 +5896,10 @@
         <v>400</v>
       </c>
       <c r="G144">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5933,16 +5950,16 @@
     </row>
     <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="D147" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
@@ -5951,10 +5968,10 @@
         <v>400</v>
       </c>
       <c r="G147">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5980,7 +5997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -6034,10 +6051,10 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6049,7 +6066,7 @@
         <v>12.3</v>
       </c>
       <c r="H151">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6132,10 +6149,10 @@
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D155" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -6175,16 +6192,16 @@
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>621</v>
+        <v>64</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
@@ -6193,10 +6210,10 @@
         <v>400</v>
       </c>
       <c r="G157">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H157">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6403,10 +6420,10 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D166" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6418,7 +6435,7 @@
         <v>12.3</v>
       </c>
       <c r="H166">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6455,10 +6472,10 @@
         <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>576</v>
+        <v>323</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6470,7 +6487,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H168">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6498,16 +6515,16 @@
     </row>
     <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>601</v>
+        <v>324</v>
       </c>
       <c r="D170" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
@@ -6516,10 +6533,10 @@
         <v>400</v>
       </c>
       <c r="G170">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6602,10 +6619,10 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="D174" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -6617,7 +6634,7 @@
         <v>12.3</v>
       </c>
       <c r="H174">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6700,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6715,7 +6732,7 @@
         <v>12.3</v>
       </c>
       <c r="H178">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6743,16 +6760,16 @@
     </row>
     <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="D180" t="s">
-        <v>641</v>
+        <v>334</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6761,10 +6778,10 @@
         <v>400</v>
       </c>
       <c r="G180">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H180">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6934,7 +6951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -6988,10 +7005,10 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="D190" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7003,7 +7020,7 @@
         <v>12.3</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7034,16 +7051,16 @@
     </row>
     <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="D192" t="s">
-        <v>557</v>
+        <v>340</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7052,10 +7069,10 @@
         <v>400</v>
       </c>
       <c r="G192">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H192">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7083,16 +7100,16 @@
     </row>
     <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>623</v>
+        <v>342</v>
       </c>
       <c r="D194" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7101,10 +7118,10 @@
         <v>400</v>
       </c>
       <c r="G194">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H194">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7210,10 +7227,10 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="D199" t="s">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -7225,7 +7242,7 @@
         <v>12.3</v>
       </c>
       <c r="H199">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7308,10 +7325,10 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D203" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E203" t="s">
         <v>15</v>
@@ -7351,16 +7368,16 @@
     </row>
     <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="D205" t="s">
-        <v>578</v>
+        <v>352</v>
       </c>
       <c r="E205" t="s">
         <v>15</v>
@@ -7369,13 +7386,13 @@
         <v>400</v>
       </c>
       <c r="G205">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H205">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7579,10 +7596,10 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -7594,7 +7611,7 @@
         <v>12.3</v>
       </c>
       <c r="H214">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7631,10 +7648,10 @@
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D216" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
@@ -7646,7 +7663,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7697,16 +7714,16 @@
     </row>
     <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>603</v>
+        <v>261</v>
       </c>
       <c r="D219" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -7715,10 +7732,10 @@
         <v>400</v>
       </c>
       <c r="G219">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H219">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7824,10 +7841,10 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="E224" t="s">
         <v>15</v>
@@ -7839,7 +7856,7 @@
         <v>12.3</v>
       </c>
       <c r="H224">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7922,10 +7939,10 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="D228" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="E228" t="s">
         <v>15</v>
@@ -7937,7 +7954,7 @@
         <v>12.3</v>
       </c>
       <c r="H228">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7965,16 +7982,16 @@
     </row>
     <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="D230" t="s">
-        <v>559</v>
+        <v>365</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
@@ -7983,13 +8000,13 @@
         <v>400</v>
       </c>
       <c r="G230">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H230">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -8164,10 +8181,10 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D238" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E238" t="s">
         <v>15</v>
@@ -8210,16 +8227,16 @@
     </row>
     <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>213</v>
+        <v>372</v>
       </c>
       <c r="D240" t="s">
-        <v>214</v>
+        <v>373</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -8228,10 +8245,10 @@
         <v>400</v>
       </c>
       <c r="G240">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8282,16 +8299,16 @@
     </row>
     <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>580</v>
+        <v>375</v>
       </c>
       <c r="D243" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8300,10 +8317,10 @@
         <v>400</v>
       </c>
       <c r="G243">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H243">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8329,7 +8346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8389,10 +8406,10 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="D247" t="s">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
@@ -8404,7 +8421,7 @@
         <v>12.3</v>
       </c>
       <c r="H247">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8487,10 +8504,10 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D251" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
@@ -8530,16 +8547,16 @@
     </row>
     <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="D253" t="s">
-        <v>625</v>
+        <v>385</v>
       </c>
       <c r="E253" t="s">
         <v>15</v>
@@ -8548,10 +8565,10 @@
         <v>400</v>
       </c>
       <c r="G253">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H253">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8755,10 +8772,10 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="D262" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="E262" t="s">
         <v>15</v>
@@ -8770,7 +8787,7 @@
         <v>12.3</v>
       </c>
       <c r="H262">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8801,16 +8818,16 @@
     </row>
     <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="D264" t="s">
-        <v>561</v>
+        <v>391</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -8819,10 +8836,10 @@
         <v>400</v>
       </c>
       <c r="G264">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H264">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8850,16 +8867,16 @@
     </row>
     <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>605</v>
+        <v>393</v>
       </c>
       <c r="D266" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E266" t="s">
         <v>15</v>
@@ -8868,10 +8885,10 @@
         <v>400</v>
       </c>
       <c r="G266">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H266">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8897,7 +8914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8951,10 +8968,10 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="D270" t="s">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
@@ -8966,7 +8983,7 @@
         <v>12.3</v>
       </c>
       <c r="H270">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9049,10 +9066,10 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="D274" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="E274" t="s">
         <v>15</v>
@@ -9064,7 +9081,7 @@
         <v>12.3</v>
       </c>
       <c r="H274">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9098,10 +9115,10 @@
         <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="D276" t="s">
-        <v>643</v>
+        <v>404</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -9113,7 +9130,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H276">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9283,7 +9300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9343,10 +9360,10 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="D286" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="E286" t="s">
         <v>15</v>
@@ -9389,16 +9406,16 @@
     </row>
     <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="D288" t="s">
-        <v>582</v>
+        <v>407</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -9407,10 +9424,10 @@
         <v>400</v>
       </c>
       <c r="G288">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H288">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9438,16 +9455,16 @@
     </row>
     <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>627</v>
+        <v>409</v>
       </c>
       <c r="D290" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="E290" t="s">
         <v>15</v>
@@ -9456,10 +9473,10 @@
         <v>400</v>
       </c>
       <c r="G290">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H290">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9542,10 +9559,10 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="D294" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="E294" t="s">
         <v>15</v>
@@ -9557,7 +9574,7 @@
         <v>12.3</v>
       </c>
       <c r="H294">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9640,10 +9657,10 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>300</v>
+        <v>415</v>
       </c>
       <c r="D298" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="E298" t="s">
         <v>15</v>
@@ -9655,7 +9672,7 @@
         <v>12.3</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9683,16 +9700,16 @@
     </row>
     <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="D300" t="s">
-        <v>563</v>
+        <v>206</v>
       </c>
       <c r="E300" t="s">
         <v>15</v>
@@ -9701,10 +9718,10 @@
         <v>400</v>
       </c>
       <c r="G300">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H300">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9874,7 +9891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9928,10 +9945,10 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="D310" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="E310" t="s">
         <v>15</v>
@@ -9943,7 +9960,7 @@
         <v>12.3</v>
       </c>
       <c r="H310">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9974,16 +9991,16 @@
     </row>
     <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="D312" t="s">
-        <v>607</v>
+        <v>163</v>
       </c>
       <c r="E312" t="s">
         <v>15</v>
@@ -9992,10 +10009,10 @@
         <v>400</v>
       </c>
       <c r="G312">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H312">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10023,16 +10040,16 @@
     </row>
     <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>645</v>
+        <v>430</v>
       </c>
       <c r="D314" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="E314" t="s">
         <v>15</v>
@@ -10041,10 +10058,10 @@
         <v>400</v>
       </c>
       <c r="G314">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H314">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10127,10 +10144,10 @@
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="D318" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="E318" t="s">
         <v>15</v>
@@ -10142,7 +10159,7 @@
         <v>12.3</v>
       </c>
       <c r="H318">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10225,10 +10242,10 @@
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="D322" t="s">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="E322" t="s">
         <v>15</v>
@@ -10240,7 +10257,7 @@
         <v>12.3</v>
       </c>
       <c r="H322">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10268,16 +10285,16 @@
     </row>
     <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>254</v>
+        <v>439</v>
       </c>
       <c r="D324" t="s">
-        <v>584</v>
+        <v>49</v>
       </c>
       <c r="E324" t="s">
         <v>15</v>
@@ -10286,13 +10303,13 @@
         <v>400</v>
       </c>
       <c r="G324">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H324">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10513,16 +10530,16 @@
     </row>
     <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="D334" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="E334" t="s">
         <v>15</v>
@@ -10531,10 +10548,10 @@
         <v>400</v>
       </c>
       <c r="G334">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H334">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10565,16 +10582,16 @@
     </row>
     <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="D336" t="s">
-        <v>565</v>
+        <v>259</v>
       </c>
       <c r="E336" t="s">
         <v>15</v>
@@ -10583,10 +10600,10 @@
         <v>400</v>
       </c>
       <c r="G336">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H336">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10614,16 +10631,16 @@
     </row>
     <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>629</v>
+        <v>442</v>
       </c>
       <c r="D338" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="E338" t="s">
         <v>15</v>
@@ -10632,10 +10649,10 @@
         <v>400</v>
       </c>
       <c r="G338">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H338">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10718,10 +10735,10 @@
         <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="D342" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="E342" t="s">
         <v>15</v>
@@ -10816,10 +10833,10 @@
         <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="D346" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="E346" t="s">
         <v>15</v>
@@ -10831,7 +10848,7 @@
         <v>12.3</v>
       </c>
       <c r="H346">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10865,10 +10882,10 @@
         <v>13</v>
       </c>
       <c r="C348" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="D348" t="s">
-        <v>609</v>
+        <v>449</v>
       </c>
       <c r="E348" t="s">
         <v>15</v>
@@ -10880,10 +10897,10 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H348">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -11127,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="D359" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="E359" t="s">
         <v>15</v>
@@ -11142,7 +11159,7 @@
         <v>12.3</v>
       </c>
       <c r="H359">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11173,16 +11190,16 @@
     </row>
     <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C361" t="s">
-        <v>220</v>
+        <v>456</v>
       </c>
       <c r="D361" t="s">
-        <v>586</v>
+        <v>29</v>
       </c>
       <c r="E361" t="s">
         <v>15</v>
@@ -11191,10 +11208,10 @@
         <v>400</v>
       </c>
       <c r="G361">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H361">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11222,16 +11239,16 @@
     </row>
     <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C363" t="s">
-        <v>647</v>
+        <v>459</v>
       </c>
       <c r="D363" t="s">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="E363" t="s">
         <v>15</v>
@@ -11240,10 +11257,10 @@
         <v>400</v>
       </c>
       <c r="G363">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H363">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11269,7 +11286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -11329,10 +11346,10 @@
         <v>9</v>
       </c>
       <c r="C367" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D367" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="E367" t="s">
         <v>15</v>
@@ -11496,10 +11513,10 @@
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>306</v>
+        <v>465</v>
       </c>
       <c r="D374" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="E374" t="s">
         <v>15</v>
@@ -11511,7 +11528,7 @@
         <v>12.3</v>
       </c>
       <c r="H374">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11539,16 +11556,16 @@
     </row>
     <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>111</v>
+        <v>468</v>
       </c>
       <c r="D376" t="s">
-        <v>654</v>
+        <v>170</v>
       </c>
       <c r="E376" t="s">
         <v>15</v>
@@ -11557,10 +11574,10 @@
         <v>400</v>
       </c>
       <c r="G376">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H376">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11833,10 +11850,10 @@
         <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="D388" t="s">
-        <v>352</v>
+        <v>47</v>
       </c>
       <c r="E388" t="s">
         <v>15</v>
@@ -11848,7 +11865,7 @@
         <v>12.3</v>
       </c>
       <c r="H388">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11928,16 +11945,16 @@
     </row>
     <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B392" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C392" t="s">
-        <v>611</v>
+        <v>473</v>
       </c>
       <c r="D392" t="s">
-        <v>612</v>
+        <v>474</v>
       </c>
       <c r="E392" t="s">
         <v>15</v>
@@ -11946,10 +11963,10 @@
         <v>400</v>
       </c>
       <c r="G392">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H392">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -11998,7 +12015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -12052,10 +12069,10 @@
         <v>9</v>
       </c>
       <c r="C397" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="D397" t="s">
-        <v>49</v>
+        <v>477</v>
       </c>
       <c r="E397" t="s">
         <v>15</v>
@@ -12067,7 +12084,7 @@
         <v>12.3</v>
       </c>
       <c r="H397">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -12142,7 +12159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -12219,10 +12236,10 @@
         <v>9</v>
       </c>
       <c r="C404" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D404" t="s">
-        <v>400</v>
+        <v>57</v>
       </c>
       <c r="E404" t="s">
         <v>15</v>
@@ -12234,21 +12251,21 @@
         <v>12.3</v>
       </c>
       <c r="H404">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>173</v>
+        <v>483</v>
       </c>
       <c r="D405" t="s">
-        <v>588</v>
+        <v>182</v>
       </c>
       <c r="E405" t="s">
         <v>15</v>
@@ -12257,10 +12274,10 @@
         <v>400</v>
       </c>
       <c r="G405">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H405">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -12481,16 +12498,16 @@
     </row>
     <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D415" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E415" t="s">
         <v>15</v>
@@ -12499,7 +12516,7 @@
         <v>400</v>
       </c>
       <c r="G415">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H415">
         <v>10</v>
@@ -12539,10 +12556,10 @@
         <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="D417" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="E417" t="s">
         <v>15</v>
@@ -12554,10 +12571,10 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H417">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -12605,16 +12622,16 @@
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B420" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>631</v>
+        <v>498</v>
       </c>
       <c r="D420" t="s">
-        <v>632</v>
+        <v>114</v>
       </c>
       <c r="E420" t="s">
         <v>15</v>
@@ -12623,10 +12640,10 @@
         <v>400</v>
       </c>
       <c r="G420">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H420">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -12778,10 +12795,10 @@
         <v>9</v>
       </c>
       <c r="C427" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D427" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="E427" t="s">
         <v>15</v>
@@ -12899,10 +12916,10 @@
         <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D432" t="s">
-        <v>516</v>
+        <v>120</v>
       </c>
       <c r="E432" t="s">
         <v>15</v>
@@ -12914,7 +12931,7 @@
         <v>12.3</v>
       </c>
       <c r="H432">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -12965,16 +12982,16 @@
     </row>
     <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B435" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>223</v>
+        <v>506</v>
       </c>
       <c r="D435" t="s">
-        <v>614</v>
+        <v>507</v>
       </c>
       <c r="E435" t="s">
         <v>15</v>
@@ -12983,10 +13000,10 @@
         <v>400</v>
       </c>
       <c r="G435">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H435">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13110,7 +13127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -13236,16 +13253,16 @@
     </row>
     <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B446" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C446" t="s">
-        <v>258</v>
+        <v>508</v>
       </c>
       <c r="D446" t="s">
-        <v>259</v>
+        <v>509</v>
       </c>
       <c r="E446" t="s">
         <v>15</v>
@@ -13254,10 +13271,10 @@
         <v>400</v>
       </c>
       <c r="G446">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H446">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13285,16 +13302,16 @@
     </row>
     <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B448" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C448" t="s">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="D448" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="E448" t="s">
         <v>15</v>
@@ -13303,10 +13320,10 @@
         <v>400</v>
       </c>
       <c r="G448">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H448">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13357,16 +13374,16 @@
     </row>
     <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B451" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C451" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="D451" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="E451" t="s">
         <v>15</v>
@@ -13375,10 +13392,10 @@
         <v>400</v>
       </c>
       <c r="G451">
-        <v>12.849600000000001</v>
+        <v>12.3</v>
       </c>
       <c r="H451">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13501,16 +13518,16 @@
     </row>
     <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C457" t="s">
-        <v>355</v>
+        <v>523</v>
       </c>
       <c r="D457" t="s">
-        <v>176</v>
+        <v>524</v>
       </c>
       <c r="E457" t="s">
         <v>15</v>
@@ -13519,10 +13536,10 @@
         <v>400</v>
       </c>
       <c r="G457">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H457">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13645,16 +13662,16 @@
     </row>
     <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B463" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C463" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="D463" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="E463" t="s">
         <v>15</v>
@@ -13663,10 +13680,10 @@
         <v>400</v>
       </c>
       <c r="G463">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H463">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13700,10 +13717,10 @@
         <v>13</v>
       </c>
       <c r="C465" t="s">
-        <v>53</v>
+        <v>543</v>
       </c>
       <c r="D465" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="E465" t="s">
         <v>15</v>
@@ -13715,10 +13732,10 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H465">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13982,16 +13999,16 @@
     </row>
     <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B477" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C477" t="s">
-        <v>310</v>
+        <v>546</v>
       </c>
       <c r="D477" t="s">
-        <v>311</v>
+        <v>547</v>
       </c>
       <c r="E477" t="s">
         <v>15</v>
@@ -14000,10 +14017,10 @@
         <v>400</v>
       </c>
       <c r="G477">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H477">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14014,10 +14031,10 @@
         <v>13</v>
       </c>
       <c r="C478" t="s">
-        <v>176</v>
+        <v>550</v>
       </c>
       <c r="D478" t="s">
-        <v>356</v>
+        <v>63</v>
       </c>
       <c r="E478" t="s">
         <v>15</v>
@@ -14029,7 +14046,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H478">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14086,10 +14103,10 @@
         <v>13</v>
       </c>
       <c r="C481" t="s">
-        <v>546</v>
+        <v>154</v>
       </c>
       <c r="D481" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E481" t="s">
         <v>15</v>
@@ -14101,7 +14118,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H481">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14173,7 +14190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14227,16 +14244,16 @@
     </row>
     <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B487" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C487" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="D487" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="E487" t="s">
         <v>15</v>
@@ -14245,10 +14262,10 @@
         <v>400</v>
       </c>
       <c r="G487">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H487">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14348,16 +14365,16 @@
     </row>
     <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C492" t="s">
-        <v>442</v>
+        <v>102</v>
       </c>
       <c r="D492" t="s">
-        <v>443</v>
+        <v>557</v>
       </c>
       <c r="E492" t="s">
         <v>15</v>
@@ -14366,10 +14383,10 @@
         <v>400</v>
       </c>
       <c r="G492">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H492">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14403,10 +14420,10 @@
         <v>13</v>
       </c>
       <c r="C494" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D494" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="E494" t="s">
         <v>15</v>
@@ -14418,7 +14435,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H494">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14642,16 +14659,16 @@
     </row>
     <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B504" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C504" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="D504" t="s">
-        <v>262</v>
+        <v>561</v>
       </c>
       <c r="E504" t="s">
         <v>15</v>
@@ -14660,10 +14677,10 @@
         <v>400</v>
       </c>
       <c r="G504">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H504">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14674,10 +14691,10 @@
         <v>13</v>
       </c>
       <c r="C505" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D505" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E505" t="s">
         <v>15</v>
@@ -14769,10 +14786,10 @@
         <v>13</v>
       </c>
       <c r="C509" t="s">
-        <v>634</v>
+        <v>170</v>
       </c>
       <c r="D509" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="E509" t="s">
         <v>15</v>
@@ -14784,7 +14801,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H509">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14810,7 +14827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14856,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -14864,10 +14881,10 @@
         <v>13</v>
       </c>
       <c r="C513" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D513" t="s">
-        <v>58</v>
+        <v>567</v>
       </c>
       <c r="E513" t="s">
         <v>15</v>
@@ -14879,7 +14896,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -14907,16 +14924,16 @@
     </row>
     <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C515" t="s">
-        <v>480</v>
+        <v>55</v>
       </c>
       <c r="D515" t="s">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="E515" t="s">
         <v>15</v>
@@ -14925,10 +14942,10 @@
         <v>400</v>
       </c>
       <c r="G515">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H515">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15005,16 +15022,16 @@
     </row>
     <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C519" t="s">
-        <v>406</v>
+        <v>572</v>
       </c>
       <c r="D519" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="E519" t="s">
         <v>15</v>
@@ -15023,10 +15040,10 @@
         <v>400</v>
       </c>
       <c r="G519">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H519">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15060,10 +15077,10 @@
         <v>13</v>
       </c>
       <c r="C521" t="s">
-        <v>179</v>
+        <v>574</v>
       </c>
       <c r="D521" t="s">
-        <v>592</v>
+        <v>377</v>
       </c>
       <c r="E521" t="s">
         <v>15</v>
@@ -15322,16 +15339,16 @@
     </row>
     <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B532" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C532" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="D532" t="s">
-        <v>314</v>
+        <v>576</v>
       </c>
       <c r="E532" t="s">
         <v>15</v>
@@ -15340,13 +15357,13 @@
         <v>400</v>
       </c>
       <c r="G532">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H532">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15472,10 +15489,10 @@
         <v>13</v>
       </c>
       <c r="C538" t="s">
-        <v>617</v>
+        <v>251</v>
       </c>
       <c r="D538" t="s">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="E538" t="s">
         <v>15</v>
@@ -15487,7 +15504,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H538">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15587,16 +15604,16 @@
     </row>
     <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B543" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C543" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="D543" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="E543" t="s">
         <v>15</v>
@@ -15605,10 +15622,10 @@
         <v>400</v>
       </c>
       <c r="G543">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H543">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15685,16 +15702,16 @@
     </row>
     <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B547" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C547" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="D547" t="s">
-        <v>359</v>
+        <v>582</v>
       </c>
       <c r="E547" t="s">
         <v>15</v>
@@ -15703,10 +15720,10 @@
         <v>400</v>
       </c>
       <c r="G547">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H547">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15717,10 +15734,10 @@
         <v>13</v>
       </c>
       <c r="C548" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D548" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="E548" t="s">
         <v>15</v>
@@ -15732,7 +15749,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H548">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -15925,7 +15942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15950,16 +15967,16 @@
     </row>
     <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C558" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="D558" t="s">
-        <v>410</v>
+        <v>586</v>
       </c>
       <c r="E558" t="s">
         <v>15</v>
@@ -15968,10 +15985,10 @@
         <v>400</v>
       </c>
       <c r="G558">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H558">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16008,10 +16025,10 @@
         <v>13</v>
       </c>
       <c r="C560" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D560" t="s">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="E560" t="s">
         <v>15</v>
@@ -16023,7 +16040,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16103,10 +16120,10 @@
         <v>13</v>
       </c>
       <c r="C564" t="s">
-        <v>594</v>
+        <v>114</v>
       </c>
       <c r="D564" t="s">
-        <v>360</v>
+        <v>589</v>
       </c>
       <c r="E564" t="s">
         <v>15</v>
@@ -16241,16 +16258,16 @@
     </row>
     <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B570" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C570" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="D570" t="s">
-        <v>182</v>
+        <v>592</v>
       </c>
       <c r="E570" t="s">
         <v>15</v>
@@ -16259,10 +16276,10 @@
         <v>400</v>
       </c>
       <c r="G570">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H570">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16362,16 +16379,16 @@
     </row>
     <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B575" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C575" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="D575" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="E575" t="s">
         <v>15</v>
@@ -16380,10 +16397,10 @@
         <v>400</v>
       </c>
       <c r="G575">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H575">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16417,10 +16434,10 @@
         <v>13</v>
       </c>
       <c r="C577" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="D577" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="E577" t="s">
         <v>15</v>
@@ -16432,10 +16449,10 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H577">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16610,16 +16627,16 @@
     </row>
     <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B585" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C585" t="s">
-        <v>361</v>
+        <v>99</v>
       </c>
       <c r="D585" t="s">
-        <v>362</v>
+        <v>599</v>
       </c>
       <c r="E585" t="s">
         <v>15</v>
@@ -16628,10 +16645,10 @@
         <v>400</v>
       </c>
       <c r="G585">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H585">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16714,10 +16731,10 @@
         <v>13</v>
       </c>
       <c r="C589" t="s">
-        <v>182</v>
+        <v>601</v>
       </c>
       <c r="D589" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="E589" t="s">
         <v>15</v>
@@ -16729,7 +16746,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H589">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16763,10 +16780,10 @@
         <v>13</v>
       </c>
       <c r="C591" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="D591" t="s">
-        <v>542</v>
+        <v>338</v>
       </c>
       <c r="E591" t="s">
         <v>15</v>
@@ -16778,7 +16795,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H591">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -16878,16 +16895,16 @@
     </row>
     <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B596" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C596" t="s">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="D596" t="s">
-        <v>231</v>
+        <v>389</v>
       </c>
       <c r="E596" t="s">
         <v>15</v>
@@ -16896,10 +16913,10 @@
         <v>400</v>
       </c>
       <c r="G596">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H596">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17045,16 +17062,16 @@
     </row>
     <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B603" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C603" t="s">
-        <v>411</v>
+        <v>108</v>
       </c>
       <c r="D603" t="s">
-        <v>412</v>
+        <v>607</v>
       </c>
       <c r="E603" t="s">
         <v>15</v>
@@ -17063,10 +17080,10 @@
         <v>400</v>
       </c>
       <c r="G603">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H603">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17092,7 +17109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17123,10 +17140,10 @@
         <v>13</v>
       </c>
       <c r="C606" t="s">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="D606" t="s">
-        <v>63</v>
+        <v>609</v>
       </c>
       <c r="E606" t="s">
         <v>15</v>
@@ -17138,7 +17155,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H606">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17264,16 +17281,16 @@
     </row>
     <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B612" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C612" t="s">
-        <v>506</v>
+        <v>611</v>
       </c>
       <c r="D612" t="s">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="E612" t="s">
         <v>15</v>
@@ -17282,10 +17299,10 @@
         <v>400</v>
       </c>
       <c r="G612">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H612">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17342,10 +17359,10 @@
         <v>13</v>
       </c>
       <c r="C615" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="D615" t="s">
-        <v>233</v>
+        <v>615</v>
       </c>
       <c r="E615" t="s">
         <v>15</v>
@@ -17357,7 +17374,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H615">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17368,10 +17385,10 @@
         <v>13</v>
       </c>
       <c r="C616" t="s">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="D616" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="E616" t="s">
         <v>15</v>
@@ -17383,7 +17400,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H616">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17409,7 +17426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17463,16 +17480,16 @@
     </row>
     <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C620" t="s">
-        <v>316</v>
+        <v>619</v>
       </c>
       <c r="D620" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="E620" t="s">
         <v>15</v>
@@ -17481,10 +17498,10 @@
         <v>400</v>
       </c>
       <c r="G620">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H620">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17607,16 +17624,16 @@
     </row>
     <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B626" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C626" t="s">
-        <v>364</v>
+        <v>160</v>
       </c>
       <c r="D626" t="s">
-        <v>365</v>
+        <v>621</v>
       </c>
       <c r="E626" t="s">
         <v>15</v>
@@ -17625,10 +17642,10 @@
         <v>400</v>
       </c>
       <c r="G626">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H626">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17662,10 +17679,10 @@
         <v>13</v>
       </c>
       <c r="C628" t="s">
-        <v>486</v>
+        <v>623</v>
       </c>
       <c r="D628" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="E628" t="s">
         <v>15</v>
@@ -17677,7 +17694,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H628">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17826,16 +17843,16 @@
     </row>
     <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B635" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C635" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="D635" t="s">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="E635" t="s">
         <v>15</v>
@@ -17844,10 +17861,10 @@
         <v>400</v>
       </c>
       <c r="G635">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H635">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17881,10 +17898,10 @@
         <v>13</v>
       </c>
       <c r="C637" t="s">
-        <v>268</v>
+        <v>627</v>
       </c>
       <c r="D637" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="E637" t="s">
         <v>15</v>
@@ -17896,7 +17913,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H637">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17907,10 +17924,10 @@
         <v>13</v>
       </c>
       <c r="C638" t="s">
-        <v>508</v>
+        <v>629</v>
       </c>
       <c r="D638" t="s">
-        <v>509</v>
+        <v>395</v>
       </c>
       <c r="E638" t="s">
         <v>15</v>
@@ -17922,7 +17939,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H638">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -17948,7 +17965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17973,16 +17990,16 @@
     </row>
     <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B641" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C641" t="s">
-        <v>415</v>
+        <v>631</v>
       </c>
       <c r="D641" t="s">
-        <v>66</v>
+        <v>632</v>
       </c>
       <c r="E641" t="s">
         <v>15</v>
@@ -17991,10 +18008,10 @@
         <v>400</v>
       </c>
       <c r="G641">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H641">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18094,16 +18111,16 @@
     </row>
     <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B646" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C646" t="s">
-        <v>450</v>
+        <v>634</v>
       </c>
       <c r="D646" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E646" t="s">
         <v>15</v>
@@ -18112,10 +18129,10 @@
         <v>400</v>
       </c>
       <c r="G646">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H646">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18149,10 +18166,10 @@
         <v>13</v>
       </c>
       <c r="C648" t="s">
-        <v>523</v>
+        <v>315</v>
       </c>
       <c r="D648" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="E648" t="s">
         <v>15</v>
@@ -18164,7 +18181,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H648">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18265,7 +18282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>13</v>
       </c>
@@ -18293,16 +18310,16 @@
     </row>
     <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B654" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C654" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="D654" t="s">
-        <v>271</v>
+        <v>639</v>
       </c>
       <c r="E654" t="s">
         <v>15</v>
@@ -18311,10 +18328,10 @@
         <v>400</v>
       </c>
       <c r="G654">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H654">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18348,10 +18365,10 @@
         <v>13</v>
       </c>
       <c r="C656" t="s">
-        <v>488</v>
+        <v>210</v>
       </c>
       <c r="D656" t="s">
-        <v>489</v>
+        <v>641</v>
       </c>
       <c r="E656" t="s">
         <v>15</v>
@@ -18363,7 +18380,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H656">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18417,16 +18434,16 @@
     </row>
     <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B659" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C659" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="D659" t="s">
-        <v>129</v>
+        <v>643</v>
       </c>
       <c r="E659" t="s">
         <v>15</v>
@@ -18435,10 +18452,10 @@
         <v>400</v>
       </c>
       <c r="G659">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H659">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18538,16 +18555,16 @@
     </row>
     <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B664" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C664" t="s">
-        <v>237</v>
+        <v>645</v>
       </c>
       <c r="D664" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="E664" t="s">
         <v>15</v>
@@ -18556,10 +18573,10 @@
         <v>400</v>
       </c>
       <c r="G664">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H664">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18570,10 +18587,10 @@
         <v>13</v>
       </c>
       <c r="C665" t="s">
-        <v>543</v>
+        <v>647</v>
       </c>
       <c r="D665" t="s">
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="E665" t="s">
         <v>15</v>
@@ -18585,7 +18602,7 @@
         <v>12.849600000000001</v>
       </c>
       <c r="H665">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18634,7 +18651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -18680,7 +18697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>9</v>
       </c>
@@ -18757,16 +18774,16 @@
     </row>
     <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B673" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C673" t="s">
-        <v>368</v>
+        <v>223</v>
       </c>
       <c r="D673" t="s">
-        <v>369</v>
+        <v>614</v>
       </c>
       <c r="E673" t="s">
         <v>15</v>
@@ -18775,10 +18792,10 @@
         <v>400</v>
       </c>
       <c r="G673">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H673">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18947,16 +18964,16 @@
     </row>
     <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B681" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C681" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="D681" t="s">
-        <v>274</v>
+        <v>651</v>
       </c>
       <c r="E681" t="s">
         <v>15</v>
@@ -18965,10 +18982,10 @@
         <v>400</v>
       </c>
       <c r="G681">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H681">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -18994,7 +19011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19040,7 +19057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19164,7 +19181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19213,7 +19230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>8</v>
       </c>
@@ -19261,16 +19278,16 @@
     </row>
     <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B694" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C694" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D694" t="s">
-        <v>193</v>
+        <v>654</v>
       </c>
       <c r="E694" t="s">
         <v>15</v>
@@ -19279,10 +19296,10 @@
         <v>400</v>
       </c>
       <c r="G694">
-        <v>12.3</v>
+        <v>12.849600000000001</v>
       </c>
       <c r="H694">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -19360,7 +19377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -19406,7 +19423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19481,7 +19498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>13</v>
       </c>
@@ -19550,7 +19567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19599,7 +19616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -19694,7 +19711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -19769,7 +19786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>13</v>
       </c>
@@ -19792,7 +19809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>13</v>
       </c>
@@ -19841,7 +19858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -19913,7 +19930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>9</v>
       </c>
@@ -19941,19 +19958,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H721" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="400"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H721">
-      <sortCondition ref="C1:C721"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BusPlanning.xlsx
+++ b/BusPlanning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/527924_student_fontys_nl/Documents/Documenten/Project_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D60E2F-59E4-4F56-82B8-159BDE050358}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602B9675-0F3A-464E-8EF8-4D827E3B933E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2368,24 +2368,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2822,12 +2822,8 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <f>270-G7-G12</f>
-        <v>257.21639999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2853,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3069,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3262,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3288,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +3330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3386,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3435,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3458,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3481,7 +3477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3530,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3651,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3700,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3726,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3772,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3798,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3821,7 +3817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3873,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +3987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -4040,7 +4036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4092,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4187,7 +4183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4236,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4259,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +4327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4354,7 +4350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4432,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +4477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4530,7 +4526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4576,7 +4572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4628,7 +4624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +4673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -4703,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4775,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4824,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4896,7 +4892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -4919,7 +4915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4968,7 +4964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5066,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5089,7 +5085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5161,7 +5157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -5210,7 +5206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5285,7 +5281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5311,7 +5307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -5334,7 +5330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -5432,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5458,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5481,7 +5477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5556,7 +5552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5579,7 +5575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -5654,7 +5650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -5726,7 +5722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -5798,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5824,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -5850,7 +5846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5902,7 +5898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5974,7 +5970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -6020,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6069,7 +6065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6095,7 +6091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6118,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6190,7 +6186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -6216,7 +6212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -6242,7 +6238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6288,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -6314,7 +6310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -6337,7 +6333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6386,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6412,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -6438,7 +6434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -6513,7 +6509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -6539,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -6588,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6611,7 +6607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6637,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -6663,7 +6659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6709,7 +6705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -6735,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -6784,7 +6780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -6810,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -6856,7 +6852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -6879,7 +6875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -6905,7 +6901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6928,7 +6924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -6951,7 +6947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6997,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -7023,7 +7019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -7049,7 +7045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7098,7 +7094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7124,7 +7120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -7147,7 +7143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7173,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7219,7 +7215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -7271,7 +7267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -7294,7 +7290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -7343,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -7366,7 +7362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -7392,7 +7388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7418,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -7444,7 +7440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -7467,7 +7463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -7539,7 +7535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -7562,7 +7558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7640,7 +7636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -7689,7 +7685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7712,7 +7708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7761,7 +7757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -7810,7 +7806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7833,7 +7829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -7885,7 +7881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -7908,7 +7904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7931,7 +7927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -7957,7 +7953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -8006,7 +8002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -8075,7 +8071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -8098,7 +8094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8124,7 +8120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8173,7 +8169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -8199,7 +8195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -8251,7 +8247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8297,7 +8293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8323,7 +8319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -8398,7 +8394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8424,7 +8420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8473,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -8496,7 +8492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -8545,7 +8541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8571,7 +8567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -8597,7 +8593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8620,7 +8616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -8643,7 +8639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -8669,7 +8665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -8692,7 +8688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -8741,7 +8737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8790,7 +8786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -8816,7 +8812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8865,7 +8861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8891,7 +8887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -8960,7 +8956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -8986,7 +8982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -9035,7 +9031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9058,7 +9054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9084,7 +9080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9107,7 +9103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -9133,7 +9129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -9159,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -9182,7 +9178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9205,7 +9201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9254,7 +9250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9277,7 +9273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9326,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -9352,7 +9348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9378,7 +9374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9453,7 +9449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9479,7 +9475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9551,7 +9547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -9577,7 +9573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -9603,7 +9599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>13</v>
       </c>
@@ -9675,7 +9671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -9750,7 +9746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9773,7 +9769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -9845,7 +9841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -9891,7 +9887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9914,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -9937,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9963,7 +9959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -10038,7 +10034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10087,7 +10083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -10113,7 +10109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -10136,7 +10132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>13</v>
       </c>
@@ -10211,7 +10207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -10260,7 +10256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -10283,7 +10279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -10309,7 +10305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -10384,7 +10380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -10433,7 +10429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10479,7 +10475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>13</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -10528,7 +10524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -10580,7 +10576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -10606,7 +10602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -10629,7 +10625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -10655,7 +10651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>13</v>
       </c>
@@ -10678,7 +10674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -10779,7 +10775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>13</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -10851,7 +10847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10900,7 +10896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10923,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10995,7 +10991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -11018,7 +11014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -11041,7 +11037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -11136,7 +11132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>13</v>
       </c>
@@ -11162,7 +11158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -11214,7 +11210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -11237,7 +11233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -11263,7 +11259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -11364,7 +11360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -11387,7 +11383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11413,7 +11409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11436,7 +11432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -11459,7 +11455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11482,7 +11478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -11505,7 +11501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11531,7 +11527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -11554,7 +11550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -11580,7 +11576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -11606,7 +11602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11629,7 +11625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -11652,7 +11648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -11675,7 +11671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11721,7 +11717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11747,7 +11743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11770,7 +11766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -11793,7 +11789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11819,7 +11815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11842,7 +11838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -11894,7 +11890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -11920,7 +11916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11943,7 +11939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -11969,7 +11965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -12015,7 +12011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -12038,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -12061,7 +12057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12087,7 +12083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12110,7 +12106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12159,7 +12155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -12182,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -12205,7 +12201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>13</v>
       </c>
@@ -12228,7 +12224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12254,7 +12250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12280,7 +12276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12329,7 +12325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -12352,7 +12348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -12378,7 +12374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>13</v>
       </c>
@@ -12401,7 +12397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>13</v>
       </c>
@@ -12424,7 +12420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -12447,7 +12443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12470,7 +12466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>13</v>
       </c>
@@ -12496,7 +12492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12522,7 +12518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -12548,7 +12544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -12574,7 +12570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -12597,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -12620,7 +12616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12646,7 +12642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -12669,7 +12665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -12692,7 +12688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -12715,7 +12711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12738,7 +12734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12764,7 +12760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12813,7 +12809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12839,7 +12835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -12862,7 +12858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12885,7 +12881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12908,7 +12904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -12934,7 +12930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -12980,7 +12976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -13006,7 +13002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -13032,7 +13028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -13055,7 +13051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13081,7 +13077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -13104,7 +13100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -13127,7 +13123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -13153,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -13176,7 +13172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -13199,7 +13195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13225,7 +13221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13251,7 +13247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13277,7 +13273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13300,7 +13296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13326,7 +13322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -13349,7 +13345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13398,7 +13394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -13421,7 +13417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>13</v>
       </c>
@@ -13444,7 +13440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -13467,7 +13463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13493,7 +13489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13542,7 +13538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13565,7 +13561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -13591,7 +13587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13614,7 +13610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13637,7 +13633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -13660,7 +13656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -13709,7 +13705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13735,7 +13731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13758,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -13781,7 +13777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -13830,7 +13826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13853,7 +13849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -13876,7 +13872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -13899,7 +13895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -13922,7 +13918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>8</v>
       </c>
@@ -13945,7 +13941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>13</v>
       </c>
@@ -13971,7 +13967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13997,7 +13993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -14023,7 +14019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -14049,7 +14045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -14072,7 +14068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -14095,7 +14091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -14121,7 +14117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14144,7 +14140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14167,7 +14163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>13</v>
       </c>
@@ -14190,7 +14186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14216,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>13</v>
       </c>
@@ -14242,7 +14238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14268,7 +14264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -14294,7 +14290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>13</v>
       </c>
@@ -14317,7 +14313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -14340,7 +14336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -14363,7 +14359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -14389,7 +14385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14412,7 +14408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -14438,7 +14434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>13</v>
       </c>
@@ -14464,7 +14460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -14487,7 +14483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14510,7 +14506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -14536,7 +14532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>8</v>
       </c>
@@ -14559,7 +14555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -14582,7 +14578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -14605,7 +14601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14631,7 +14627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -14657,7 +14653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14683,7 +14679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14709,7 +14705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14755,7 +14751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14778,7 +14774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14804,7 +14800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -14827,7 +14823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14850,7 +14846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -14873,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -14899,7 +14895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -14922,7 +14918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14948,7 +14944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -14974,7 +14970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14997,7 +14993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>13</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15046,7 +15042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -15069,7 +15065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -15095,7 +15091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>13</v>
       </c>
@@ -15121,7 +15117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>8</v>
       </c>
@@ -15144,7 +15140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15167,7 +15163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -15193,7 +15189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>8</v>
       </c>
@@ -15216,7 +15212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15239,7 +15235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>8</v>
       </c>
@@ -15262,7 +15258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15285,7 +15281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>13</v>
       </c>
@@ -15311,7 +15307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -15337,7 +15333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15363,7 +15359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15386,7 +15382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15409,7 +15405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15435,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15458,7 +15454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -15481,7 +15477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -15507,7 +15503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>13</v>
       </c>
@@ -15530,7 +15526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>13</v>
       </c>
@@ -15556,7 +15552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -15579,7 +15575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15602,7 +15598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -15628,7 +15624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -15654,7 +15650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15677,7 +15673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>13</v>
       </c>
@@ -15700,7 +15696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -15726,7 +15722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -15752,7 +15748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>13</v>
       </c>
@@ -15778,7 +15774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15804,7 +15800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15827,7 +15823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15850,7 +15846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>13</v>
       </c>
@@ -15873,7 +15869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>8</v>
       </c>
@@ -15896,7 +15892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -15919,7 +15915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>8</v>
       </c>
@@ -15942,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15965,7 +15961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -15991,7 +15987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -16017,7 +16013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -16043,7 +16039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>8</v>
       </c>
@@ -16066,7 +16062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16089,7 +16085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16112,7 +16108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -16138,7 +16134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>8</v>
       </c>
@@ -16161,7 +16157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16184,7 +16180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -16210,7 +16206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -16233,7 +16229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -16256,7 +16252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>9</v>
       </c>
@@ -16282,7 +16278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>13</v>
       </c>
@@ -16305,7 +16301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -16331,7 +16327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16354,7 +16350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -16377,7 +16373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16403,7 +16399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>9</v>
       </c>
@@ -16426,7 +16422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16452,7 +16448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16478,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>13</v>
       </c>
@@ -16504,7 +16500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16530,7 +16526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>9</v>
       </c>
@@ -16553,7 +16549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>13</v>
       </c>
@@ -16576,7 +16572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16599,7 +16595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>13</v>
       </c>
@@ -16625,7 +16621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -16651,7 +16647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16677,7 +16673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16700,7 +16696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16723,7 +16719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>9</v>
       </c>
@@ -16749,7 +16745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>13</v>
       </c>
@@ -16772,7 +16768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>9</v>
       </c>
@@ -16798,7 +16794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>13</v>
       </c>
@@ -16821,7 +16817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16844,7 +16840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>13</v>
       </c>
@@ -16870,7 +16866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>9</v>
       </c>
@@ -16893,7 +16889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16919,7 +16915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>9</v>
       </c>
@@ -16942,7 +16938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16965,7 +16961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>9</v>
       </c>
@@ -16991,7 +16987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17037,7 +17033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>8</v>
       </c>
@@ -17060,7 +17056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>9</v>
       </c>
@@ -17086,7 +17082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>9</v>
       </c>
@@ -17109,7 +17105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17132,7 +17128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -17158,7 +17154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17181,7 +17177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>9</v>
       </c>
@@ -17207,7 +17203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>13</v>
       </c>
@@ -17230,7 +17226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>13</v>
       </c>
@@ -17279,7 +17275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -17305,7 +17301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>13</v>
       </c>
@@ -17328,7 +17324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -17351,7 +17347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17377,7 +17373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -17403,7 +17399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>13</v>
       </c>
@@ -17426,7 +17422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17452,7 +17448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>13</v>
       </c>
@@ -17478,7 +17474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -17504,7 +17500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>13</v>
       </c>
@@ -17527,7 +17523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -17550,7 +17546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17576,7 +17572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -17599,7 +17595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>13</v>
       </c>
@@ -17622,7 +17618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -17648,7 +17644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17671,7 +17667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -17697,7 +17693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>8</v>
       </c>
@@ -17720,7 +17716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17743,7 +17739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>13</v>
       </c>
@@ -17769,7 +17765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -17792,7 +17788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>9</v>
       </c>
@@ -17818,7 +17814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>13</v>
       </c>
@@ -17841,7 +17837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>9</v>
       </c>
@@ -17867,7 +17863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17890,7 +17886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -17916,7 +17912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17942,7 +17938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17965,7 +17961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17988,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>9</v>
       </c>
@@ -18014,7 +18010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>13</v>
       </c>
@@ -18037,7 +18033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>9</v>
       </c>
@@ -18063,7 +18059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18086,7 +18082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18109,7 +18105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18135,7 +18131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>9</v>
       </c>
@@ -18158,7 +18154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18184,7 +18180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -18207,7 +18203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>13</v>
       </c>
@@ -18233,7 +18229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>9</v>
       </c>
@@ -18259,7 +18255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>13</v>
       </c>
@@ -18282,7 +18278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>13</v>
       </c>
@@ -18308,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18334,7 +18330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>9</v>
       </c>
@@ -18357,7 +18353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18383,7 +18379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18406,7 +18402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>13</v>
       </c>
@@ -18432,7 +18428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18458,7 +18454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18481,7 +18477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18507,7 +18503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>9</v>
       </c>
@@ -18530,7 +18526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18553,7 +18549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>9</v>
       </c>
@@ -18579,7 +18575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18605,7 +18601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>9</v>
       </c>
@@ -18628,7 +18624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18651,7 +18647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -18674,7 +18670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>13</v>
       </c>
@@ -18697,7 +18693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>9</v>
       </c>
@@ -18723,7 +18719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18749,7 +18745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>9</v>
       </c>
@@ -18772,7 +18768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18798,7 +18794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18821,7 +18817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>9</v>
       </c>
@@ -18844,7 +18840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>13</v>
       </c>
@@ -18870,7 +18866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>9</v>
       </c>
@@ -18916,7 +18912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>8</v>
       </c>
@@ -18939,7 +18935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>8</v>
       </c>
@@ -18962,7 +18958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>9</v>
       </c>
@@ -18988,7 +18984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>13</v>
       </c>
@@ -19011,7 +19007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19034,7 +19030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19057,7 +19053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19083,7 +19079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>13</v>
       </c>
@@ -19109,7 +19105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>9</v>
       </c>
@@ -19132,7 +19128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19158,7 +19154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19181,7 +19177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19204,7 +19200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>9</v>
       </c>
@@ -19230,7 +19226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>8</v>
       </c>
@@ -19253,7 +19249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19276,7 +19272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>9</v>
       </c>
@@ -19302,7 +19298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>13</v>
       </c>
@@ -19328,7 +19324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19351,7 +19347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>9</v>
       </c>
@@ -19377,7 +19373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -19400,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -19423,7 +19419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19449,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19472,7 +19468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>13</v>
       </c>
@@ -19498,7 +19494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>13</v>
       </c>
@@ -19521,7 +19517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>8</v>
       </c>
@@ -19544,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19567,7 +19563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19593,7 +19589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>8</v>
       </c>
@@ -19616,7 +19612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -19639,7 +19635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19665,7 +19661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>8</v>
       </c>
@@ -19688,7 +19684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>13</v>
       </c>
@@ -19711,7 +19707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -19737,7 +19733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>8</v>
       </c>
@@ -19760,7 +19756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19786,7 +19782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>13</v>
       </c>
@@ -19809,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>13</v>
       </c>
@@ -19835,7 +19831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19858,7 +19854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -19881,7 +19877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -19907,7 +19903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>13</v>
       </c>
@@ -19930,7 +19926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>9</v>
       </c>

--- a/BusPlanning.xlsx
+++ b/BusPlanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/527924_student_fontys_nl/Documents/Documenten/Project_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602B9675-0F3A-464E-8EF8-4D827E3B933E}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{536F4F94-487A-4319-A5D9-6382845A77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3E8B53-1080-4DC1-9A66-7B9123F97D73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2367,11 +2367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,9 +2378,9 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2411,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>13</v>
       </c>
@@ -9671,7 +9670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>13</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -10452,7 +10451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>13</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>13</v>
       </c>
@@ -10674,7 +10673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>13</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -11132,7 +11131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>13</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -11210,7 +11209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -11360,7 +11359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11478,7 +11477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11527,7 +11526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -11550,7 +11549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -11602,7 +11601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -11648,7 +11647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11717,7 +11716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12172,13 +12171,13 @@
         <v>52</v>
       </c>
       <c r="G401">
-        <v>1.98</v>
+        <v>-157.5</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>13</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -12302,7 +12301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>13</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>13</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>13</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -12616,7 +12615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12642,7 +12641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -12711,7 +12710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12760,7 +12759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12809,7 +12808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12835,7 +12834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -13368,7 +13367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -13417,7 +13416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>13</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -13512,7 +13511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13849,7 +13848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>8</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>13</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>13</v>
       </c>
@@ -14212,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>13</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -14290,7 +14289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>13</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -14359,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14408,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>13</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>8</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -14578,7 +14577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -14601,7 +14600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14800,7 +14799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14869,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -14895,7 +14894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -14918,7 +14917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14993,7 +14992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>13</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -15065,7 +15064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>13</v>
       </c>
@@ -15117,7 +15116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>8</v>
       </c>
@@ -15140,7 +15139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>8</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>8</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15281,7 +15280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>13</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -15503,7 +15502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>13</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>13</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15598,7 +15597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -15650,7 +15649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>13</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>13</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15800,7 +15799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15823,7 +15822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>13</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>8</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>8</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -16013,7 +16012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -16039,7 +16038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>8</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16085,7 +16084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>8</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>9</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>13</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -16327,7 +16326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>9</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16474,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>13</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16526,7 +16525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>9</v>
       </c>
@@ -16549,7 +16548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>13</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>13</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -16647,7 +16646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16719,7 +16718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>9</v>
       </c>
@@ -16745,7 +16744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>13</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>9</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>13</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16840,7 +16839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>13</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>9</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>9</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>9</v>
       </c>
@@ -16987,7 +16986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -17010,7 +17009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17033,7 +17032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>8</v>
       </c>
@@ -17056,7 +17055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>9</v>
       </c>
@@ -17082,7 +17081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>9</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -17154,7 +17153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17177,7 +17176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>9</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>13</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17249,7 +17248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>13</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>13</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -17347,7 +17346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>13</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>13</v>
       </c>
@@ -17474,7 +17473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>13</v>
       </c>
@@ -17523,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17572,7 +17571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -17595,7 +17594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>13</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17667,7 +17666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -17693,7 +17692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>8</v>
       </c>
@@ -17716,7 +17715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>13</v>
       </c>
@@ -17765,7 +17764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>9</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>13</v>
       </c>
@@ -17837,7 +17836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>9</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -17912,7 +17911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17938,7 +17937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>9</v>
       </c>
@@ -18010,7 +18009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>13</v>
       </c>
@@ -18033,7 +18032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>9</v>
       </c>
@@ -18059,7 +18058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18082,7 +18081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18105,7 +18104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18131,7 +18130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>9</v>
       </c>
@@ -18154,7 +18153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -18203,7 +18202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>13</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>9</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>13</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>9</v>
       </c>
@@ -18353,7 +18352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18379,7 +18378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18402,7 +18401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>13</v>
       </c>
@@ -18428,7 +18427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18503,7 +18502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>9</v>
       </c>
@@ -18526,7 +18525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>9</v>
       </c>
@@ -18575,7 +18574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18601,7 +18600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>9</v>
       </c>
@@ -18624,7 +18623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>13</v>
       </c>
@@ -18719,7 +18718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18745,7 +18744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>9</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18817,7 +18816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>9</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>13</v>
       </c>
@@ -18866,7 +18865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>13</v>
       </c>
@@ -18889,7 +18888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>9</v>
       </c>
@@ -18912,7 +18911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>8</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>8</v>
       </c>
@@ -18958,7 +18957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>9</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>13</v>
       </c>
@@ -19030,7 +19029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19079,7 +19078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>13</v>
       </c>
@@ -19105,7 +19104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>9</v>
       </c>
@@ -19128,7 +19127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19154,7 +19153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19200,7 +19199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>9</v>
       </c>
@@ -19249,7 +19248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19272,7 +19271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>9</v>
       </c>
@@ -19298,7 +19297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>13</v>
       </c>
@@ -19324,7 +19323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19347,7 +19346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>9</v>
       </c>
@@ -19396,7 +19395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19468,7 +19467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>13</v>
       </c>
@@ -19517,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>8</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19589,7 +19588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>8</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>8</v>
       </c>
@@ -19684,7 +19683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>13</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>8</v>
       </c>
@@ -19756,7 +19755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19831,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19877,7 +19876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -19903,7 +19902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>13</v>
       </c>
@@ -19953,13 +19952,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H721" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H721" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -19974,14 +19967,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="85" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f20b580f4bc73672f7fc26b54f2fdd7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9324efb3ca4fd789e46a4cfe415928a3" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -20202,6 +20187,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
   <ds:schemaRefs>
@@ -20211,16 +20204,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20237,4 +20220,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>